--- a/data/trans_dic/P13_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,4</t>
+          <t>2,53; 6,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,88</t>
+          <t>2,13; 6,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,76</t>
+          <t>2,13; 5,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,91</t>
+          <t>2,94; 6,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,37</t>
+          <t>3,14; 8,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,69</t>
+          <t>2,16; 6,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,24</t>
+          <t>2,42; 7,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,42</t>
+          <t>2,47; 5,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,66</t>
+          <t>3,31; 6,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,43</t>
+          <t>2,46; 5,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,53</t>
+          <t>2,64; 5,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,51</t>
+          <t>3,2; 5,63</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,68</t>
+          <t>0,43; 3,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,48</t>
+          <t>2,41; 6,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,16</t>
+          <t>1,57; 4,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,48</t>
+          <t>2,12; 5,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,72</t>
+          <t>1,13; 4,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,2</t>
+          <t>3,35; 9,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,32</t>
+          <t>0,91; 4,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,59</t>
+          <t>2,88; 6,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,15</t>
+          <t>1,02; 3,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,89</t>
+          <t>3,5; 6,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,93</t>
+          <t>1,62; 4,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,3</t>
+          <t>2,9; 5,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,34</t>
+          <t>0,93; 3,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,71</t>
+          <t>3,73; 7,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,38</t>
+          <t>2,59; 6,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,04</t>
+          <t>1,19; 5,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 12,25</t>
+          <t>3,76; 13,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,89; 13,49</t>
+          <t>6,09; 13,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 14,87</t>
+          <t>5,09; 14,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 15,04</t>
+          <t>7,78; 15,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,81</t>
+          <t>2,03; 4,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,41</t>
+          <t>4,94; 8,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,25</t>
+          <t>3,75; 7,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,71</t>
+          <t>1,92; 7,68</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,8</t>
+          <t>2,68; 4,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,64</t>
+          <t>3,82; 6,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,46</t>
+          <t>2,3; 4,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 7,96</t>
+          <t>5,13; 7,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,74</t>
+          <t>3,46; 6,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,92</t>
+          <t>5,79; 9,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 8,05</t>
+          <t>4,67; 8,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,69</t>
+          <t>2,47; 6,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,11</t>
+          <t>3,3; 5,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,43</t>
+          <t>5,11; 7,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,62</t>
+          <t>3,61; 5,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,89</t>
+          <t>4,09; 6,86</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,65</t>
+          <t>2,94; 7,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,81</t>
+          <t>2,39; 5,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,51</t>
+          <t>3,4; 6,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,96</t>
+          <t>5,32; 10,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,72</t>
+          <t>2,49; 5,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,92; 14,71</t>
+          <t>10,19; 15,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,47</t>
+          <t>4,75; 8,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,79</t>
+          <t>6,64; 10,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,85</t>
+          <t>3,1; 5,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 10,73</t>
+          <t>7,32; 10,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,08</t>
+          <t>4,59; 7,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,85</t>
+          <t>6,8; 9,88</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,15</t>
+          <t>1,01; 5,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,05</t>
+          <t>2,38; 7,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,9</t>
+          <t>0,69; 3,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,83</t>
+          <t>4,3; 6,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,23; 13,1</t>
+          <t>9,07; 13,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,08</t>
+          <t>4,08; 7,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,59; 10,75</t>
+          <t>7,33; 10,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,05</t>
+          <t>3,9; 6,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,25; 11,63</t>
+          <t>8,05; 11,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,94</t>
+          <t>3,39; 5,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,03; 8,68</t>
+          <t>5,97; 8,61</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 3,82</t>
+          <t>2,63; 3,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 5,47</t>
+          <t>3,96; 5,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 4,25</t>
+          <t>2,87; 4,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 5,78</t>
+          <t>3,83; 5,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,16; 5,7</t>
+          <t>4,1; 5,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,35; 10,36</t>
+          <t>8,35; 10,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,76; 6,38</t>
+          <t>4,74; 6,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,67; 7,7</t>
+          <t>5,49; 7,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,57; 4,54</t>
+          <t>3,57; 4,53</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,39; 7,66</t>
+          <t>6,43; 7,66</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 5,13</t>
+          <t>4,02; 5,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,01; 6,53</t>
+          <t>5,02; 6,57</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20493</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16349</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15388</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23064</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16017</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11974</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14615</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17120</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36511</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>28323</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>30002</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>40183</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11996; 31491</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9273; 26374</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9134; 25637</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14872; 33591</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9624; 25503</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6780; 20189</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8358; 24316</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11053; 23445</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25809; 49355</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18504; 40376</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20388; 42963</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30461; 53645</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5015</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17242</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11100</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15581</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20093</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7842</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16957</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14152</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>37335</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18942</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>32538</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1593; 12715</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10089; 28266</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5917; 18387</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9573; 23564</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4215; 17956</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11340; 32172</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3383; 15667</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11030; 24696</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7511; 23926</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26498; 52912</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12112; 30202</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24168; 45406</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10055</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>34083</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21244</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22552</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23909</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14956</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18199</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22441</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>57992</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>36200</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>40751</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5048; 18341</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23448; 48825</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13534; 33903</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7908; 39669</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6314; 21814</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15850; 33922</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8459; 23482</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12948; 25781</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14418; 33824</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>43931; 74538</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25775; 50610</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16049; 64008</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>44355</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>59638</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>38015</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>65623</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>35024</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>58415</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51221</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48608</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>79379</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>118053</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>89237</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>114231</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>33144; 60169</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>44247; 76568</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26420; 53259</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>53094; 81849</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>24718; 48551</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>44242; 75298</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38485; 68490</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24202; 66857</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>64433; 100052</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>98274; 140418</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>71200; 110783</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>82302; 138094</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16839</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19232</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>29952</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>34974</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>22901</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94131</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>47420</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>74468</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>39739</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>113364</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>77372</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>109442</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10298; 25641</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12208; 28736</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21114; 41765</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>25195; 48855</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14161; 33791</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>77608; 116543</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>35081; 62943</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>55774; 90309</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>28528; 53835</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>93134; 135173</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>62419; 98930</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>89261; 129665</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7655</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12396</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1883</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>68427</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>122013</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>59626</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>67982</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>76081</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>134409</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>61509</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>72174</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3001; 15229</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6351; 20940</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6644</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1670; 9117</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>53701; 86747</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100528; 147564</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>44049; 76040</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>55677; 80220</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>60356; 96808</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>110679; 156723</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>46413; 79474</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>59666; 86088</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>104411</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>158941</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>117581</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>165986</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>163893</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>330536</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>195680</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>243334</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>268304</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>489477</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>313261</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>409320</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>86145; 125758</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>135340; 187889</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>97255; 141572</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>129053; 194249</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>138413; 191500</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>296101; 368479</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>167192; 223406</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>196109; 270554</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>237065; 300964</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>447897; 533501</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>277629; 350725</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>349026; 456159</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P13_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
